--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -691,13 +691,13 @@
     <t>SM</t>
   </si>
   <si>
+    <t>ABYSS</t>
+  </si>
+  <si>
     <t>빅플래닛메이드</t>
   </si>
   <si>
     <t>MORE VISION</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -1320,6 +1320,12 @@
       <c r="F7" t="s">
         <v>174</v>
       </c>
+      <c r="G7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1341,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>252</v>
@@ -1367,7 +1373,7 @@
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
         <v>252</v>
@@ -1419,7 +1425,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
         <v>252</v>
@@ -2199,7 +2205,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H41" t="s">
         <v>252</v>
@@ -2276,6 +2282,12 @@
       <c r="F44" t="s">
         <v>190</v>
       </c>
+      <c r="G44" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -3675,7 +3687,7 @@
         <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H98" t="s">
         <v>252</v>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-05-08</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -1139,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3701,22 +3701,22 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H99" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3727,22 +3727,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="G100" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3753,47 +3753,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G101" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="H101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" t="s">
-        <v>219</v>
-      </c>
-      <c r="G102" t="s">
-        <v>240</v>
-      </c>
-      <c r="H102" t="s">
         <v>240</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220508_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -727,7 +727,7 @@
     <t>SSK</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>플렉스엠</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
@@ -1220,7 +1217,7 @@
         <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1246,7 +1243,7 @@
         <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1324,7 +1321,7 @@
         <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1350,7 +1347,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1376,7 +1373,7 @@
         <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1428,7 +1425,7 @@
         <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1454,7 +1451,7 @@
         <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1506,7 +1503,7 @@
         <v>229</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1532,7 +1529,7 @@
         <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1558,7 +1555,7 @@
         <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1584,7 +1581,7 @@
         <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1610,7 +1607,7 @@
         <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1636,7 +1633,7 @@
         <v>233</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1662,7 +1659,7 @@
         <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1688,7 +1685,7 @@
         <v>221</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1714,7 +1711,7 @@
         <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1766,7 +1763,7 @@
         <v>236</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1818,7 +1815,7 @@
         <v>237</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1870,7 +1867,7 @@
         <v>233</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1896,7 +1893,7 @@
         <v>238</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1922,7 +1919,7 @@
         <v>222</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1948,7 +1945,7 @@
         <v>234</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1974,7 +1971,7 @@
         <v>229</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2026,7 +2023,7 @@
         <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2104,7 +2101,7 @@
         <v>241</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2156,7 +2153,7 @@
         <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2182,7 +2179,7 @@
         <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2208,7 +2205,7 @@
         <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2234,7 +2231,7 @@
         <v>229</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2260,7 +2257,7 @@
         <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2286,7 +2283,7 @@
         <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2338,7 +2335,7 @@
         <v>234</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2364,7 +2361,7 @@
         <v>229</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2390,7 +2387,7 @@
         <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2416,7 +2413,7 @@
         <v>234</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2494,7 +2491,7 @@
         <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2520,7 +2517,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2546,7 +2543,7 @@
         <v>229</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2598,7 +2595,7 @@
         <v>233</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2624,7 +2621,7 @@
         <v>229</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2650,7 +2647,7 @@
         <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2676,7 +2673,7 @@
         <v>221</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2702,7 +2699,7 @@
         <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2728,7 +2725,7 @@
         <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2780,7 +2777,7 @@
         <v>229</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2806,7 +2803,7 @@
         <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2858,7 +2855,7 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2884,7 +2881,7 @@
         <v>238</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2936,7 +2933,7 @@
         <v>247</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2962,7 +2959,7 @@
         <v>234</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2988,7 +2985,7 @@
         <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3014,7 +3011,7 @@
         <v>238</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3040,7 +3037,7 @@
         <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3066,7 +3063,7 @@
         <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3118,7 +3115,7 @@
         <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3144,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3170,7 +3167,7 @@
         <v>221</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3196,7 +3193,7 @@
         <v>251</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3222,7 +3219,7 @@
         <v>229</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3245,10 +3242,10 @@
         <v>159</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3271,10 +3268,10 @@
         <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3300,7 +3297,7 @@
         <v>222</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3326,7 +3323,7 @@
         <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3352,7 +3349,7 @@
         <v>237</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3430,7 +3427,7 @@
         <v>229</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3456,7 +3453,7 @@
         <v>247</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3479,10 +3476,10 @@
         <v>212</v>
       </c>
       <c r="G90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3534,7 +3531,7 @@
         <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3557,10 +3554,10 @@
         <v>214</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3586,7 +3583,7 @@
         <v>221</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3612,7 +3609,7 @@
         <v>249</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3638,7 +3635,7 @@
         <v>234</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3690,7 +3687,7 @@
         <v>226</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3713,10 +3710,10 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:8">
